--- a/data_sample/2000030_project_quantities.xlsx
+++ b/data_sample/2000030_project_quantities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI\CostEstimateGenerator\data_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C879C0-4690-4C17-BD7C-661FFF51FD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{864948BE-B96B-407F-A2CF-4B5509401458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20058329-8BB5-4169-8DDB-97B771D67E1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20058329-8BB5-4169-8DDB-97B771D67E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="129">
   <si>
     <t>Pay Item Number</t>
   </si>
@@ -161,21 +161,9 @@
     <t>QC/QA-HMA, 3, 58H, BASE, 19.0 mm</t>
   </si>
   <si>
-    <t>401-10258</t>
-  </si>
-  <si>
-    <t>JOINT ADHESIVE, SURFACE</t>
-  </si>
-  <si>
     <t>LFT</t>
   </si>
   <si>
-    <t>401-10259</t>
-  </si>
-  <si>
-    <t>JOINT ADHESIVE, INTERMEDIATE</t>
-  </si>
-  <si>
     <t>401-12169</t>
   </si>
   <si>
@@ -248,9 +236,6 @@
     <t>621-06545</t>
   </si>
   <si>
-    <t>FERTILIZER</t>
-  </si>
-  <si>
     <t>621-06553</t>
   </si>
   <si>
@@ -417,6 +402,27 @@
   </si>
   <si>
     <t>LINE, MULTI-COMPONENT, BROKEN, YELLOW, 6 IN.</t>
+  </si>
+  <si>
+    <t>401-11526</t>
+  </si>
+  <si>
+    <t>JOINT ADHESIVE</t>
+  </si>
+  <si>
+    <t>FERTILIZER, FOR PERMANENT SEEDING</t>
+  </si>
+  <si>
+    <t>629-000149</t>
+  </si>
+  <si>
+    <t>TOPSOIL PROCESSING AND DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>629-000150</t>
+  </si>
+  <si>
+    <t>TOPSOIL AMENDMENT BUDGET</t>
   </si>
 </sst>
 </file>
@@ -788,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F15F39-ECA1-492E-9B5A-F4EF12CDEAE6}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,575 +1046,589 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
       <c r="D18">
-        <v>7417</v>
+        <v>14834</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>7417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>230</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
       <c r="D23">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>505</v>
+        <v>937</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D28">
-        <v>937</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>46806</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>46806</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>1959</v>
+        <v>904</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
       </c>
       <c r="D33">
-        <v>904</v>
+        <v>46806</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>349</v>
+        <v>93612</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>54</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>463</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>380</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38">
-        <v>690</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39">
-        <v>302</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D50">
-        <v>48</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D51">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="D52">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>7857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D55">
-        <v>4226</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D56">
-        <v>1436</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D57">
-        <v>14447</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D58">
+        <v>14447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59">
         <v>928</v>
       </c>
     </row>
